--- a/output/template.xlsx
+++ b/output/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\KGQA-people_relation\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\KGQA-people_relation\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4A6CD-255A-48B4-9C84-6EAABF003787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E096054C-78C9-4E7D-8AB9-61E0BFCCEAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19104" yWindow="1512" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="456" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>%ENT0%和%ENT1%是什么关系</t>
   </si>
   <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>cypher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Match (n {NAME:"%ENT0%"})-[REL]-&gt;(m {NAME:"%ENT1%"}) return REL</t>
-  </si>
-  <si>
-    <t>REL</t>
-  </si>
-  <si>
-    <t>{"%ENT%":2}</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>cypher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%ENT0%的%REL0%是谁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"%ENT%":1,"%REL%":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备的三弟是谁'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备和张飞是什么关系'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"%ENT%":2,"%REL%":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match (n {NAME:"刘备"})-[REL]-&gt;(m {NAME:"关羽"}) return REL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATCH (n:人)-[:%REL0%]-&gt;(m:人) WHERE n.NAME = "%ENT0%" RETURN m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,37 +424,66 @@
     <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
